--- a/biology/Botanique/Carpobrotus_acinaciformis/Carpobrotus_acinaciformis.xlsx
+++ b/biology/Botanique/Carpobrotus_acinaciformis/Carpobrotus_acinaciformis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carpobrotus acinaciformis est une espèce de plantes charnues de la famille des Aizoaceae, originaire d’Afrique du Sud. Naturalisée dans d'autres régions du monde, elle peut devenir invasive.
 </t>
@@ -513,13 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif et reproducteur
-Cette plante basse présente des tiges rampantes et des feuilles charnues à trois angles (section triangulaire). Les feuilles mesurent de 5 à 8 cm de longueur pour 15 à 18 mm de largeur[2] ; elles sont vertes, rougeâtres ou rouges selon les conditions de leur environnement. Les fleurs rose pourpre sont grandes (de 5 à 12 cm de diamètre[2]), solitaires et portées par l'extrémité de la tige ("terminales"). 
-Le fruit contient un millier de petites graines incluses dans un mucilage[2].
-La floraison a lieu d'avril à juin[3].
-Espèces similaires
-Carpobrotus acinaciformis ressemble à Carpobrotus edulis, dont les feuilles, plus longues et moins larges, ont une section plutôt en triangle équilatéral, alors que Carpobrotus acinaciformis a des feuilles à section plutôt en triangle isocèle. De plus, les fleurs de Carpobrotus acinaciformis sont plus pourpres que celles de Carpobrotus edulis, qui sont de jaunâtres à roses. 
-Il existe cependant des hybridations entre ces deux espèces, ce qui peut rendre leur détermination difficile[2].
+          <t>Appareil végétatif et reproducteur</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante basse présente des tiges rampantes et des feuilles charnues à trois angles (section triangulaire). Les feuilles mesurent de 5 à 8 cm de longueur pour 15 à 18 mm de largeur ; elles sont vertes, rougeâtres ou rouges selon les conditions de leur environnement. Les fleurs rose pourpre sont grandes (de 5 à 12 cm de diamètre), solitaires et portées par l'extrémité de la tige ("terminales"). 
+Le fruit contient un millier de petites graines incluses dans un mucilage.
+La floraison a lieu d'avril à juin.
 </t>
         </is>
       </c>
@@ -545,15 +559,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Répartition
-Originaire d’Afrique du Sud, elle a été introduite dans d'autres zones du globe, où elle s'est parfois naturalisée.
-Habitat
-Cette plante pousse sur des sols minéraux, sable ou roche. Elle forme souvent de grands tapis végétaux pouvant couvrir plusieurs mètres carrés[2].
+          <t>Espèces similaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carpobrotus acinaciformis ressemble à Carpobrotus edulis, dont les feuilles, plus longues et moins larges, ont une section plutôt en triangle équilatéral, alors que Carpobrotus acinaciformis a des feuilles à section plutôt en triangle isocèle. De plus, les fleurs de Carpobrotus acinaciformis sont plus pourpres que celles de Carpobrotus edulis, qui sont de jaunâtres à roses. 
+Il existe cependant des hybridations entre ces deux espèces, ce qui peut rendre leur détermination difficile.
 </t>
         </is>
       </c>
@@ -579,15 +597,129 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire d’Afrique du Sud, elle a été introduite dans d'autres zones du globe, où elle s'est parfois naturalisée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Carpobrotus_acinaciformis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carpobrotus_acinaciformis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante pousse sur des sols minéraux, sable ou roche. Elle forme souvent de grands tapis végétaux pouvant couvrir plusieurs mètres carrés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Carpobrotus_acinaciformis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carpobrotus_acinaciformis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Carpobrotus acinaciformis et l'homme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Usage
-Le fruit peut être consommé cru, ou cuit en confiture ou jus de fruit au goût acide. Il est consommé notamment en Afrique du Sud.
-Plante invasive
-Échappée des jardins, elle est devenue une plante invasive[2].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit peut être consommé cru, ou cuit en confiture ou jus de fruit au goût acide. Il est consommé notamment en Afrique du Sud.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Carpobrotus_acinaciformis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carpobrotus_acinaciformis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Carpobrotus acinaciformis et l'homme</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plante invasive</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Échappée des jardins, elle est devenue une plante invasive.
 </t>
         </is>
       </c>
